--- a/MyCodeBase/MyCodeBase.Web/Template/test.xlsx
+++ b/MyCodeBase/MyCodeBase.Web/Template/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPractice\DotNetPractice\MyCodeBase\MyCodeBase.Web\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPractice\DotNetPractice\MyCodeBase\MyCodeBase.Web\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,11 +34,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=TestMajor.Name</t>
+    <t>&amp;=data.UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=TestMajor.Age</t>
+    <t>&amp;=data.Age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
